--- a/docs/bc/�patn� podm�nky.xlsx
+++ b/docs/bc/�patn� podm�nky.xlsx
@@ -14,33 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="31">
-  <si>
-    <t>AI střední</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="28">
   <si>
     <t>Body</t>
-  </si>
-  <si>
-    <t>AI těžká</t>
-  </si>
-  <si>
-    <t>AI lehká</t>
   </si>
   <si>
     <t>Dohráli</t>
   </si>
   <si>
     <t>Nedohráli</t>
-  </si>
-  <si>
-    <t>Lehká</t>
-  </si>
-  <si>
-    <t>Střední</t>
-  </si>
-  <si>
-    <t>Těžká</t>
   </si>
   <si>
     <t>Nejlepší</t>
@@ -107,6 +89,15 @@
   </si>
   <si>
     <t>Jak si AI poradí s nepříznivými podmínkami? Malá mapa, 6 hráčů, nížiny (bez kamení a rudy), nízké výnosy.</t>
+  </si>
+  <si>
+    <t>Goal Driven</t>
+  </si>
+  <si>
+    <t>Základní</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
   </si>
 </sst>
 </file>
@@ -612,10 +603,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -954,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BV73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="L71" sqref="L71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -965,167 +956,167 @@
   <sheetData>
     <row r="1" spans="1:74">
       <c r="B1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:74">
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
     </row>
     <row r="4" spans="1:74">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="H4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="N4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" t="s">
+        <v>14</v>
+      </c>
+      <c r="T4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="V4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
+      <c r="W4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" t="s">
+      <c r="X4" t="s">
         <v>21</v>
       </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="Y4" t="s">
         <v>17</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Z4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="AH4" t="s">
         <v>19</v>
       </c>
-      <c r="S4" t="s">
+      <c r="AI4" t="s">
         <v>20</v>
       </c>
-      <c r="T4" t="s">
+      <c r="AJ4" t="s">
         <v>21</v>
       </c>
-      <c r="U4" t="s">
-        <v>24</v>
-      </c>
-      <c r="V4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W4" t="s">
-        <v>26</v>
-      </c>
-      <c r="X4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA4" t="s">
+      <c r="AK4" t="s">
         <v>17</v>
       </c>
-      <c r="AB4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>23</v>
-      </c>
       <c r="AL4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:74">
@@ -1136,7 +1127,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1172,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="P5">
         <v>3</v>
@@ -1208,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="AA5" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AB5">
         <v>5</v>
@@ -1244,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="AM5" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AN5">
         <v>0</v>
@@ -1280,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="AY5" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AZ5">
         <v>2</v>
@@ -1316,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="BK5" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="BL5">
         <v>1</v>
@@ -1360,7 +1351,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1396,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="P6">
         <v>5</v>
@@ -1432,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="AA6" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1468,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="AM6" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AN6">
         <v>1</v>
@@ -1504,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="AY6" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AZ6">
         <v>3</v>
@@ -1540,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="BK6" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="BL6">
         <v>4</v>
@@ -1584,7 +1575,7 @@
         <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -1620,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1656,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="AA7" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AB7">
         <v>1</v>
@@ -1692,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="AM7" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AN7">
         <v>2</v>
@@ -1728,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="AY7" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AZ7">
         <v>5</v>
@@ -1764,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="BK7" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="BL7">
         <v>4</v>
@@ -1808,7 +1799,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1844,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -1880,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="AA8" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AB8">
         <v>4</v>
@@ -1916,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="AM8" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AN8">
         <v>2</v>
@@ -1952,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="AY8" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AZ8">
         <v>3</v>
@@ -1988,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="BK8" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="BL8">
         <v>5</v>
@@ -2032,7 +2023,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2068,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="P9">
         <v>5</v>
@@ -2104,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="AA9" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AB9">
         <v>2</v>
@@ -2140,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="AM9" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AN9">
         <v>4</v>
@@ -2176,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="AY9" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AZ9">
         <v>0</v>
@@ -2212,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="BK9" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="BL9">
         <v>3</v>
@@ -2256,7 +2247,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -2292,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="P10">
         <v>2</v>
@@ -2328,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="AA10" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AB10">
         <v>4</v>
@@ -2364,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="AM10" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AN10">
         <v>1</v>
@@ -2400,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="AY10" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AZ10">
         <v>0</v>
@@ -2436,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="BK10" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="BL10">
         <v>5</v>
@@ -2480,7 +2471,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -2516,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="P11">
         <v>5</v>
@@ -2552,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="AA11" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AB11">
         <v>2</v>
@@ -2588,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="AM11" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AN11">
         <v>3</v>
@@ -2624,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="AY11" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AZ11">
         <v>0</v>
@@ -2660,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="BK11" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="BL11">
         <v>1</v>
@@ -2704,7 +2695,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -2740,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -2776,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="AA12" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AB12">
         <v>2</v>
@@ -2812,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="AM12" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AN12">
         <v>4</v>
@@ -2848,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="AY12" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AZ12">
         <v>5</v>
@@ -2884,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="BK12" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="BL12">
         <v>0</v>
@@ -2928,7 +2919,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -2964,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="P13">
         <v>1</v>
@@ -3000,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="AA13" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -3036,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="AM13" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AN13">
         <v>2</v>
@@ -3072,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="AY13" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AZ13">
         <v>5</v>
@@ -3108,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="BK13" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="BL13">
         <v>3</v>
@@ -3152,7 +3143,7 @@
         <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -3188,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="P14">
         <v>5</v>
@@ -3224,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="AA14" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AB14">
         <v>3</v>
@@ -3260,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="AM14" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AN14">
         <v>4</v>
@@ -3296,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="AY14" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AZ14">
         <v>0</v>
@@ -3332,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="BK14" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="BL14">
         <v>2</v>
@@ -3376,7 +3367,7 @@
         <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -3412,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="P15">
         <v>1</v>
@@ -3448,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="AA15" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AB15">
         <v>5</v>
@@ -3484,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="AM15" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AN15">
         <v>0</v>
@@ -3520,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="AY15" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AZ15">
         <v>3</v>
@@ -3556,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="BK15" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="BL15">
         <v>2</v>
@@ -3600,7 +3591,7 @@
         <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -3636,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -3672,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="AA16" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AB16">
         <v>1</v>
@@ -3708,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="AM16" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AN16">
         <v>4</v>
@@ -3744,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="AY16" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AZ16">
         <v>5</v>
@@ -3780,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="BK16" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="BL16">
         <v>3</v>
@@ -3824,7 +3815,7 @@
         <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -3860,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -3896,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="AA17" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AB17">
         <v>3</v>
@@ -3932,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="AM17" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AN17">
         <v>4</v>
@@ -3968,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="AY17" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AZ17">
         <v>1</v>
@@ -4004,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="BK17" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="BL17">
         <v>5</v>
@@ -4048,7 +4039,7 @@
         <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -4084,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="P18">
         <v>5</v>
@@ -4120,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="AA18" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AB18">
         <v>1</v>
@@ -4156,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="AM18" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AN18">
         <v>3</v>
@@ -4192,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="AY18" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AZ18">
         <v>2</v>
@@ -4228,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="BK18" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="BL18">
         <v>4</v>
@@ -4272,7 +4263,7 @@
         <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -4308,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -4344,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="AA19" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AB19">
         <v>2</v>
@@ -4380,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="AM19" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AN19">
         <v>5</v>
@@ -4416,7 +4407,7 @@
         <v>0</v>
       </c>
       <c r="AY19" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AZ19">
         <v>4</v>
@@ -4452,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="BK19" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="BL19">
         <v>1</v>
@@ -4496,7 +4487,7 @@
         <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -4532,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="P20">
         <v>4</v>
@@ -4568,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="AA20" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -4604,7 +4595,7 @@
         <v>0</v>
       </c>
       <c r="AM20" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AN20">
         <v>2</v>
@@ -4640,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="AY20" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AZ20">
         <v>3</v>
@@ -4676,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="BK20" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="BL20">
         <v>1</v>
@@ -4720,7 +4711,7 @@
         <v>100</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -4756,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="P21">
         <v>5</v>
@@ -4792,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="AA21" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AB21">
         <v>3</v>
@@ -4828,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="AM21" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AN21">
         <v>0</v>
@@ -4864,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="AY21" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AZ21">
         <v>4</v>
@@ -4900,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="BK21" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="BL21">
         <v>1</v>
@@ -4944,7 +4935,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -4980,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="P22">
         <v>4</v>
@@ -5016,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="AA22" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AB22">
         <v>3</v>
@@ -5052,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="AM22" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AN22">
         <v>0</v>
@@ -5088,7 +5079,7 @@
         <v>0</v>
       </c>
       <c r="AY22" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AZ22">
         <v>2</v>
@@ -5124,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="BK22" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="BL22">
         <v>5</v>
@@ -5168,7 +5159,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -5204,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -5240,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="AA23" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AB23">
         <v>2</v>
@@ -5276,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="AM23" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AN23">
         <v>3</v>
@@ -5312,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="AY23" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AZ23">
         <v>1</v>
@@ -5348,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="BK23" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="BL23">
         <v>4</v>
@@ -5392,7 +5383,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -5428,7 +5419,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -5464,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="AA24" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AB24">
         <v>4</v>
@@ -5500,7 +5491,7 @@
         <v>0</v>
       </c>
       <c r="AM24" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AN24">
         <v>1</v>
@@ -5536,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="AY24" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AZ24">
         <v>3</v>
@@ -5572,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="BK24" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="BL24">
         <v>5</v>
@@ -5616,7 +5607,7 @@
         <v>96</v>
       </c>
       <c r="C26" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -5652,7 +5643,7 @@
         <v>30</v>
       </c>
       <c r="O26" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P26">
         <v>3</v>
@@ -5688,7 +5679,7 @@
         <v>15</v>
       </c>
       <c r="AA26" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AB26">
         <v>1</v>
@@ -5724,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="AM26" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AN26">
         <v>0</v>
@@ -5760,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="AY26" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AZ26">
         <v>4</v>
@@ -5796,7 +5787,7 @@
         <v>0</v>
       </c>
       <c r="BK26" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BL26">
         <v>5</v>
@@ -5840,7 +5831,7 @@
         <v>100</v>
       </c>
       <c r="C27" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D27">
         <v>4</v>
@@ -5876,7 +5867,7 @@
         <v>24</v>
       </c>
       <c r="O27" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P27">
         <v>1</v>
@@ -5912,7 +5903,7 @@
         <v>21</v>
       </c>
       <c r="AA27" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AB27">
         <v>0</v>
@@ -5948,7 +5939,7 @@
         <v>17</v>
       </c>
       <c r="AM27" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AN27">
         <v>3</v>
@@ -5984,7 +5975,7 @@
         <v>8</v>
       </c>
       <c r="AY27" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AZ27">
         <v>2</v>
@@ -6020,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="BK27" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BL27">
         <v>5</v>
@@ -6064,7 +6055,7 @@
         <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -6100,7 +6091,7 @@
         <v>18</v>
       </c>
       <c r="O28" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P28">
         <v>1</v>
@@ -6136,7 +6127,7 @@
         <v>15</v>
       </c>
       <c r="AA28" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AB28">
         <v>4</v>
@@ -6172,7 +6163,7 @@
         <v>19</v>
       </c>
       <c r="AM28" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AN28">
         <v>5</v>
@@ -6208,7 +6199,7 @@
         <v>16</v>
       </c>
       <c r="AY28" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AZ28">
         <v>3</v>
@@ -6244,7 +6235,7 @@
         <v>0</v>
       </c>
       <c r="BK28" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BL28">
         <v>2</v>
@@ -6288,7 +6279,7 @@
         <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D29">
         <v>4</v>
@@ -6324,7 +6315,7 @@
         <v>34</v>
       </c>
       <c r="O29" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P29">
         <v>3</v>
@@ -6360,7 +6351,7 @@
         <v>29</v>
       </c>
       <c r="AA29" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AB29">
         <v>2</v>
@@ -6396,7 +6387,7 @@
         <v>7</v>
       </c>
       <c r="AM29" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AN29">
         <v>5</v>
@@ -6432,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="AY29" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AZ29">
         <v>1</v>
@@ -6468,7 +6459,7 @@
         <v>0</v>
       </c>
       <c r="BK29" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BL29">
         <v>0</v>
@@ -6512,7 +6503,7 @@
         <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -6548,7 +6539,7 @@
         <v>27</v>
       </c>
       <c r="O30" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P30">
         <v>3</v>
@@ -6584,7 +6575,7 @@
         <v>0</v>
       </c>
       <c r="AA30" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AB30">
         <v>1</v>
@@ -6620,7 +6611,7 @@
         <v>20</v>
       </c>
       <c r="AM30" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AN30">
         <v>0</v>
@@ -6656,7 +6647,7 @@
         <v>15</v>
       </c>
       <c r="AY30" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AZ30">
         <v>4</v>
@@ -6692,7 +6683,7 @@
         <v>0</v>
       </c>
       <c r="BK30" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BL30">
         <v>5</v>
@@ -6736,7 +6727,7 @@
         <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -6772,7 +6763,7 @@
         <v>25</v>
       </c>
       <c r="O31" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P31">
         <v>4</v>
@@ -6808,7 +6799,7 @@
         <v>17</v>
       </c>
       <c r="AA31" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AB31">
         <v>2</v>
@@ -6844,7 +6835,7 @@
         <v>15</v>
       </c>
       <c r="AM31" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AN31">
         <v>5</v>
@@ -6880,7 +6871,7 @@
         <v>2</v>
       </c>
       <c r="AY31" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AZ31">
         <v>3</v>
@@ -6916,7 +6907,7 @@
         <v>11</v>
       </c>
       <c r="BK31" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BL31">
         <v>0</v>
@@ -6960,7 +6951,7 @@
         <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -6996,7 +6987,7 @@
         <v>18</v>
       </c>
       <c r="O32" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P32">
         <v>4</v>
@@ -7032,7 +7023,7 @@
         <v>24</v>
       </c>
       <c r="AA32" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AB32">
         <v>2</v>
@@ -7068,7 +7059,7 @@
         <v>17</v>
       </c>
       <c r="AM32" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AN32">
         <v>1</v>
@@ -7104,7 +7095,7 @@
         <v>0</v>
       </c>
       <c r="AY32" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AZ32">
         <v>5</v>
@@ -7140,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="BK32" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BL32">
         <v>0</v>
@@ -7184,7 +7175,7 @@
         <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -7220,7 +7211,7 @@
         <v>22</v>
       </c>
       <c r="O33" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P33">
         <v>2</v>
@@ -7256,7 +7247,7 @@
         <v>32</v>
       </c>
       <c r="AA33" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AB33">
         <v>5</v>
@@ -7292,7 +7283,7 @@
         <v>0</v>
       </c>
       <c r="AM33" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AN33">
         <v>1</v>
@@ -7328,7 +7319,7 @@
         <v>5</v>
       </c>
       <c r="AY33" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AZ33">
         <v>0</v>
@@ -7364,7 +7355,7 @@
         <v>0</v>
       </c>
       <c r="BK33" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BL33">
         <v>4</v>
@@ -7408,7 +7399,7 @@
         <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -7444,7 +7435,7 @@
         <v>27</v>
       </c>
       <c r="O34" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P34">
         <v>2</v>
@@ -7480,7 +7471,7 @@
         <v>4</v>
       </c>
       <c r="AA34" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AB34">
         <v>4</v>
@@ -7516,7 +7507,7 @@
         <v>22</v>
       </c>
       <c r="AM34" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AN34">
         <v>5</v>
@@ -7552,7 +7543,7 @@
         <v>0</v>
       </c>
       <c r="AY34" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AZ34">
         <v>3</v>
@@ -7588,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="BK34" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BL34">
         <v>0</v>
@@ -7632,7 +7623,7 @@
         <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D35">
         <v>5</v>
@@ -7668,7 +7659,7 @@
         <v>70</v>
       </c>
       <c r="O35" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -7704,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="AA35" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AB35">
         <v>2</v>
@@ -7740,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="AM35" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AN35">
         <v>1</v>
@@ -7776,7 +7767,7 @@
         <v>0</v>
       </c>
       <c r="AY35" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AZ35">
         <v>4</v>
@@ -7812,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="BK35" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BL35">
         <v>3</v>
@@ -7856,7 +7847,7 @@
         <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D36">
         <v>5</v>
@@ -7892,7 +7883,7 @@
         <v>59</v>
       </c>
       <c r="O36" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P36">
         <v>1</v>
@@ -7928,7 +7919,7 @@
         <v>0</v>
       </c>
       <c r="AA36" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AB36">
         <v>2</v>
@@ -7964,7 +7955,7 @@
         <v>12</v>
       </c>
       <c r="AM36" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AN36">
         <v>0</v>
@@ -8000,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="AY36" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AZ36">
         <v>3</v>
@@ -8036,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="BK36" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BL36">
         <v>4</v>
@@ -8080,7 +8071,7 @@
         <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -8116,7 +8107,7 @@
         <v>13</v>
       </c>
       <c r="O37" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P37">
         <v>2</v>
@@ -8152,7 +8143,7 @@
         <v>24</v>
       </c>
       <c r="AA37" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AB37">
         <v>5</v>
@@ -8188,7 +8179,7 @@
         <v>18</v>
       </c>
       <c r="AM37" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AN37">
         <v>0</v>
@@ -8224,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="AY37" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AZ37">
         <v>4</v>
@@ -8260,7 +8251,7 @@
         <v>7</v>
       </c>
       <c r="BK37" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BL37">
         <v>3</v>
@@ -8304,7 +8295,7 @@
         <v>100</v>
       </c>
       <c r="C38" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D38">
         <v>3</v>
@@ -8340,7 +8331,7 @@
         <v>22</v>
       </c>
       <c r="O38" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P38">
         <v>5</v>
@@ -8376,7 +8367,7 @@
         <v>0</v>
       </c>
       <c r="AA38" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AB38">
         <v>1</v>
@@ -8412,7 +8403,7 @@
         <v>0</v>
       </c>
       <c r="AM38" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AN38">
         <v>4</v>
@@ -8448,7 +8439,7 @@
         <v>0</v>
       </c>
       <c r="AY38" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AZ38">
         <v>0</v>
@@ -8484,7 +8475,7 @@
         <v>0</v>
       </c>
       <c r="BK38" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BL38">
         <v>2</v>
@@ -8528,7 +8519,7 @@
         <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -8564,7 +8555,7 @@
         <v>58</v>
       </c>
       <c r="O39" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P39">
         <v>4</v>
@@ -8600,7 +8591,7 @@
         <v>14</v>
       </c>
       <c r="AA39" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AB39">
         <v>0</v>
@@ -8636,7 +8627,7 @@
         <v>0</v>
       </c>
       <c r="AM39" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AN39">
         <v>5</v>
@@ -8672,7 +8663,7 @@
         <v>0</v>
       </c>
       <c r="AY39" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AZ39">
         <v>3</v>
@@ -8708,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="BK39" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BL39">
         <v>2</v>
@@ -8752,7 +8743,7 @@
         <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -8788,7 +8779,7 @@
         <v>24</v>
       </c>
       <c r="O40" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P40">
         <v>4</v>
@@ -8824,7 +8815,7 @@
         <v>20</v>
       </c>
       <c r="AA40" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AB40">
         <v>5</v>
@@ -8860,7 +8851,7 @@
         <v>36</v>
       </c>
       <c r="AM40" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AN40">
         <v>0</v>
@@ -8896,7 +8887,7 @@
         <v>3</v>
       </c>
       <c r="AY40" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AZ40">
         <v>3</v>
@@ -8932,7 +8923,7 @@
         <v>0</v>
       </c>
       <c r="BK40" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BL40">
         <v>2</v>
@@ -8976,7 +8967,7 @@
         <v>100</v>
       </c>
       <c r="C41" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -9012,7 +9003,7 @@
         <v>7</v>
       </c>
       <c r="O41" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P41">
         <v>2</v>
@@ -9048,7 +9039,7 @@
         <v>17</v>
       </c>
       <c r="AA41" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AB41">
         <v>3</v>
@@ -9084,7 +9075,7 @@
         <v>10</v>
       </c>
       <c r="AM41" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AN41">
         <v>4</v>
@@ -9120,7 +9111,7 @@
         <v>27</v>
       </c>
       <c r="AY41" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AZ41">
         <v>5</v>
@@ -9156,7 +9147,7 @@
         <v>0</v>
       </c>
       <c r="BK41" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BL41">
         <v>0</v>
@@ -9200,7 +9191,7 @@
         <v>100</v>
       </c>
       <c r="C42" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -9236,7 +9227,7 @@
         <v>19</v>
       </c>
       <c r="O42" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P42">
         <v>2</v>
@@ -9272,7 +9263,7 @@
         <v>11</v>
       </c>
       <c r="AA42" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AB42">
         <v>5</v>
@@ -9308,7 +9299,7 @@
         <v>45</v>
       </c>
       <c r="AM42" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AN42">
         <v>3</v>
@@ -9344,7 +9335,7 @@
         <v>0</v>
       </c>
       <c r="AY42" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AZ42">
         <v>4</v>
@@ -9380,7 +9371,7 @@
         <v>0</v>
       </c>
       <c r="BK42" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BL42">
         <v>1</v>
@@ -9424,7 +9415,7 @@
         <v>100</v>
       </c>
       <c r="C43" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -9460,7 +9451,7 @@
         <v>23</v>
       </c>
       <c r="O43" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P43">
         <v>4</v>
@@ -9496,7 +9487,7 @@
         <v>27</v>
       </c>
       <c r="AA43" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AB43">
         <v>3</v>
@@ -9532,7 +9523,7 @@
         <v>21</v>
       </c>
       <c r="AM43" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AN43">
         <v>2</v>
@@ -9568,7 +9559,7 @@
         <v>0</v>
       </c>
       <c r="AY43" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AZ43">
         <v>5</v>
@@ -9604,7 +9595,7 @@
         <v>0</v>
       </c>
       <c r="BK43" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BL43">
         <v>0</v>
@@ -9648,7 +9639,7 @@
         <v>100</v>
       </c>
       <c r="C44" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -9684,7 +9675,7 @@
         <v>10</v>
       </c>
       <c r="O44" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P44">
         <v>3</v>
@@ -9720,7 +9711,7 @@
         <v>35</v>
       </c>
       <c r="AA44" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AB44">
         <v>0</v>
@@ -9756,7 +9747,7 @@
         <v>17</v>
       </c>
       <c r="AM44" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AN44">
         <v>4</v>
@@ -9792,7 +9783,7 @@
         <v>0</v>
       </c>
       <c r="AY44" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AZ44">
         <v>2</v>
@@ -9828,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="BK44" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BL44">
         <v>5</v>
@@ -9872,7 +9863,7 @@
         <v>100</v>
       </c>
       <c r="C45" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -9908,7 +9899,7 @@
         <v>24</v>
       </c>
       <c r="O45" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P45">
         <v>1</v>
@@ -9944,7 +9935,7 @@
         <v>0</v>
       </c>
       <c r="AA45" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AB45">
         <v>3</v>
@@ -9980,7 +9971,7 @@
         <v>22</v>
       </c>
       <c r="AM45" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AN45">
         <v>4</v>
@@ -10016,7 +10007,7 @@
         <v>25</v>
       </c>
       <c r="AY45" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AZ45">
         <v>2</v>
@@ -10052,7 +10043,7 @@
         <v>0</v>
       </c>
       <c r="BK45" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BL45">
         <v>5</v>
@@ -10096,7 +10087,7 @@
         <v>100</v>
       </c>
       <c r="C47" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -10132,7 +10123,7 @@
         <v>10</v>
       </c>
       <c r="O47" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="P47">
         <v>4</v>
@@ -10168,7 +10159,7 @@
         <v>6</v>
       </c>
       <c r="AA47" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AB47">
         <v>3</v>
@@ -10204,7 +10195,7 @@
         <v>5</v>
       </c>
       <c r="AM47" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AN47">
         <v>1</v>
@@ -10240,7 +10231,7 @@
         <v>0</v>
       </c>
       <c r="AY47" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AZ47">
         <v>2</v>
@@ -10276,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="BK47" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="BL47">
         <v>5</v>
@@ -10320,7 +10311,7 @@
         <v>100</v>
       </c>
       <c r="C48" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D48">
         <v>4</v>
@@ -10356,7 +10347,7 @@
         <v>7</v>
       </c>
       <c r="O48" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="P48">
         <v>5</v>
@@ -10392,7 +10383,7 @@
         <v>6</v>
       </c>
       <c r="AA48" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AB48">
         <v>1</v>
@@ -10428,7 +10419,7 @@
         <v>0</v>
       </c>
       <c r="AM48" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AN48">
         <v>2</v>
@@ -10464,7 +10455,7 @@
         <v>0</v>
       </c>
       <c r="AY48" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AZ48">
         <v>0</v>
@@ -10500,7 +10491,7 @@
         <v>0</v>
       </c>
       <c r="BK48" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="BL48">
         <v>3</v>
@@ -10544,7 +10535,7 @@
         <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -10580,7 +10571,7 @@
         <v>9</v>
       </c>
       <c r="O49" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="P49">
         <v>5</v>
@@ -10616,7 +10607,7 @@
         <v>9</v>
       </c>
       <c r="AA49" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AB49">
         <v>4</v>
@@ -10652,7 +10643,7 @@
         <v>10</v>
       </c>
       <c r="AM49" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AN49">
         <v>1</v>
@@ -10688,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="AY49" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AZ49">
         <v>2</v>
@@ -10724,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="BK49" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="BL49">
         <v>3</v>
@@ -10768,7 +10759,7 @@
         <v>100</v>
       </c>
       <c r="C50" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D50">
         <v>4</v>
@@ -10804,7 +10795,7 @@
         <v>3</v>
       </c>
       <c r="O50" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="P50">
         <v>3</v>
@@ -10840,7 +10831,7 @@
         <v>9</v>
       </c>
       <c r="AA50" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AB50">
         <v>1</v>
@@ -10876,7 +10867,7 @@
         <v>7</v>
       </c>
       <c r="AM50" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AN50">
         <v>0</v>
@@ -10912,7 +10903,7 @@
         <v>0</v>
       </c>
       <c r="AY50" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AZ50">
         <v>2</v>
@@ -10948,7 +10939,7 @@
         <v>0</v>
       </c>
       <c r="BK50" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="BL50">
         <v>5</v>
@@ -10992,7 +10983,7 @@
         <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -11028,7 +11019,7 @@
         <v>7</v>
       </c>
       <c r="O51" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="P51">
         <v>1</v>
@@ -11064,7 +11055,7 @@
         <v>8</v>
       </c>
       <c r="AA51" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AB51">
         <v>0</v>
@@ -11100,7 +11091,7 @@
         <v>7</v>
       </c>
       <c r="AM51" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AN51">
         <v>2</v>
@@ -11136,7 +11127,7 @@
         <v>5</v>
       </c>
       <c r="AY51" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AZ51">
         <v>4</v>
@@ -11172,7 +11163,7 @@
         <v>0</v>
       </c>
       <c r="BK51" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="BL51">
         <v>5</v>
@@ -11216,7 +11207,7 @@
         <v>100</v>
       </c>
       <c r="C52" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D52">
         <v>5</v>
@@ -11252,7 +11243,7 @@
         <v>7</v>
       </c>
       <c r="O52" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="P52">
         <v>1</v>
@@ -11288,7 +11279,7 @@
         <v>8</v>
       </c>
       <c r="AA52" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AB52">
         <v>0</v>
@@ -11324,7 +11315,7 @@
         <v>6</v>
       </c>
       <c r="AM52" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AN52">
         <v>2</v>
@@ -11360,7 +11351,7 @@
         <v>0</v>
       </c>
       <c r="AY52" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AZ52">
         <v>3</v>
@@ -11396,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="BK52" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="BL52">
         <v>4</v>
@@ -11440,7 +11431,7 @@
         <v>100</v>
       </c>
       <c r="C53" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -11476,7 +11467,7 @@
         <v>7</v>
       </c>
       <c r="O53" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="P53">
         <v>0</v>
@@ -11512,7 +11503,7 @@
         <v>9</v>
       </c>
       <c r="AA53" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AB53">
         <v>1</v>
@@ -11548,7 +11539,7 @@
         <v>11</v>
       </c>
       <c r="AM53" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AN53">
         <v>4</v>
@@ -11584,7 +11575,7 @@
         <v>0</v>
       </c>
       <c r="AY53" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AZ53">
         <v>5</v>
@@ -11620,7 +11611,7 @@
         <v>0</v>
       </c>
       <c r="BK53" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="BL53">
         <v>3</v>
@@ -11664,7 +11655,7 @@
         <v>100</v>
       </c>
       <c r="C54" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D54">
         <v>4</v>
@@ -11700,7 +11691,7 @@
         <v>9</v>
       </c>
       <c r="O54" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="P54">
         <v>0</v>
@@ -11736,7 +11727,7 @@
         <v>5</v>
       </c>
       <c r="AA54" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AB54">
         <v>5</v>
@@ -11772,7 +11763,7 @@
         <v>4</v>
       </c>
       <c r="AM54" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AN54">
         <v>1</v>
@@ -11808,7 +11799,7 @@
         <v>0</v>
       </c>
       <c r="AY54" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AZ54">
         <v>2</v>
@@ -11844,7 +11835,7 @@
         <v>0</v>
       </c>
       <c r="BK54" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="BL54">
         <v>3</v>
@@ -11888,7 +11879,7 @@
         <v>100</v>
       </c>
       <c r="C55" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -11924,7 +11915,7 @@
         <v>6</v>
       </c>
       <c r="O55" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="P55">
         <v>1</v>
@@ -11960,7 +11951,7 @@
         <v>5</v>
       </c>
       <c r="AA55" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AB55">
         <v>3</v>
@@ -11996,7 +11987,7 @@
         <v>7</v>
       </c>
       <c r="AM55" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AN55">
         <v>5</v>
@@ -12032,7 +12023,7 @@
         <v>5</v>
       </c>
       <c r="AY55" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AZ55">
         <v>0</v>
@@ -12068,7 +12059,7 @@
         <v>0</v>
       </c>
       <c r="BK55" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="BL55">
         <v>4</v>
@@ -12112,7 +12103,7 @@
         <v>100</v>
       </c>
       <c r="C56" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -12148,7 +12139,7 @@
         <v>9</v>
       </c>
       <c r="O56" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="P56">
         <v>5</v>
@@ -12184,7 +12175,7 @@
         <v>6</v>
       </c>
       <c r="AA56" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AB56">
         <v>3</v>
@@ -12220,7 +12211,7 @@
         <v>0</v>
       </c>
       <c r="AM56" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AN56">
         <v>1</v>
@@ -12256,7 +12247,7 @@
         <v>0</v>
       </c>
       <c r="AY56" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AZ56">
         <v>4</v>
@@ -12292,7 +12283,7 @@
         <v>0</v>
       </c>
       <c r="BK56" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="BL56">
         <v>2</v>
@@ -12336,7 +12327,7 @@
         <v>100</v>
       </c>
       <c r="C57" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -12372,7 +12363,7 @@
         <v>9</v>
       </c>
       <c r="O57" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="P57">
         <v>1</v>
@@ -12408,7 +12399,7 @@
         <v>8</v>
       </c>
       <c r="AA57" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AB57">
         <v>0</v>
@@ -12444,7 +12435,7 @@
         <v>0</v>
       </c>
       <c r="AM57" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AN57">
         <v>4</v>
@@ -12480,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="AY57" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AZ57">
         <v>5</v>
@@ -12516,7 +12507,7 @@
         <v>0</v>
       </c>
       <c r="BK57" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="BL57">
         <v>3</v>
@@ -12560,7 +12551,7 @@
         <v>100</v>
       </c>
       <c r="C58" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D58">
         <v>4</v>
@@ -12596,7 +12587,7 @@
         <v>8</v>
       </c>
       <c r="O58" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="P58">
         <v>5</v>
@@ -12632,7 +12623,7 @@
         <v>8</v>
       </c>
       <c r="AA58" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AB58">
         <v>1</v>
@@ -12668,7 +12659,7 @@
         <v>7</v>
       </c>
       <c r="AM58" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AN58">
         <v>3</v>
@@ -12704,7 +12695,7 @@
         <v>7</v>
       </c>
       <c r="AY58" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AZ58">
         <v>2</v>
@@ -12740,7 +12731,7 @@
         <v>0</v>
       </c>
       <c r="BK58" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="BL58">
         <v>0</v>
@@ -12784,7 +12775,7 @@
         <v>100</v>
       </c>
       <c r="C59" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -12820,7 +12811,7 @@
         <v>9</v>
       </c>
       <c r="O59" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="P59">
         <v>1</v>
@@ -12856,7 +12847,7 @@
         <v>10</v>
       </c>
       <c r="AA59" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AB59">
         <v>3</v>
@@ -12892,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="AM59" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AN59">
         <v>2</v>
@@ -12928,7 +12919,7 @@
         <v>0</v>
       </c>
       <c r="AY59" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AZ59">
         <v>5</v>
@@ -12964,7 +12955,7 @@
         <v>0</v>
       </c>
       <c r="BK59" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="BL59">
         <v>4</v>
@@ -13008,7 +12999,7 @@
         <v>100</v>
       </c>
       <c r="C60" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D60">
         <v>5</v>
@@ -13044,7 +13035,7 @@
         <v>7</v>
       </c>
       <c r="O60" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="P60">
         <v>2</v>
@@ -13080,7 +13071,7 @@
         <v>7</v>
       </c>
       <c r="AA60" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AB60">
         <v>3</v>
@@ -13116,7 +13107,7 @@
         <v>6</v>
       </c>
       <c r="AM60" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AN60">
         <v>0</v>
@@ -13152,7 +13143,7 @@
         <v>0</v>
       </c>
       <c r="AY60" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AZ60">
         <v>1</v>
@@ -13188,7 +13179,7 @@
         <v>0</v>
       </c>
       <c r="BK60" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="BL60">
         <v>4</v>
@@ -13232,7 +13223,7 @@
         <v>100</v>
       </c>
       <c r="C61" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D61">
         <v>4</v>
@@ -13268,7 +13259,7 @@
         <v>9</v>
       </c>
       <c r="O61" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="P61">
         <v>5</v>
@@ -13304,7 +13295,7 @@
         <v>7</v>
       </c>
       <c r="AA61" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AB61">
         <v>2</v>
@@ -13340,7 +13331,7 @@
         <v>0</v>
       </c>
       <c r="AM61" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AN61">
         <v>3</v>
@@ -13376,7 +13367,7 @@
         <v>0</v>
       </c>
       <c r="AY61" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AZ61">
         <v>0</v>
@@ -13412,7 +13403,7 @@
         <v>0</v>
       </c>
       <c r="BK61" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="BL61">
         <v>1</v>
@@ -13456,7 +13447,7 @@
         <v>100</v>
       </c>
       <c r="C62" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D62">
         <v>3</v>
@@ -13492,7 +13483,7 @@
         <v>7</v>
       </c>
       <c r="O62" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="P62">
         <v>1</v>
@@ -13528,7 +13519,7 @@
         <v>11</v>
       </c>
       <c r="AA62" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AB62">
         <v>0</v>
@@ -13564,7 +13555,7 @@
         <v>8</v>
       </c>
       <c r="AM62" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AN62">
         <v>4</v>
@@ -13600,7 +13591,7 @@
         <v>5</v>
       </c>
       <c r="AY62" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AZ62">
         <v>5</v>
@@ -13636,7 +13627,7 @@
         <v>2</v>
       </c>
       <c r="BK62" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="BL62">
         <v>2</v>
@@ -13680,7 +13671,7 @@
         <v>100</v>
       </c>
       <c r="C63" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D63">
         <v>5</v>
@@ -13716,7 +13707,7 @@
         <v>8</v>
       </c>
       <c r="O63" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="P63">
         <v>0</v>
@@ -13752,7 +13743,7 @@
         <v>9</v>
       </c>
       <c r="AA63" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AB63">
         <v>3</v>
@@ -13788,7 +13779,7 @@
         <v>6</v>
       </c>
       <c r="AM63" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AN63">
         <v>1</v>
@@ -13824,7 +13815,7 @@
         <v>7</v>
       </c>
       <c r="AY63" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AZ63">
         <v>4</v>
@@ -13860,7 +13851,7 @@
         <v>9</v>
       </c>
       <c r="BK63" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="BL63">
         <v>2</v>
@@ -13904,7 +13895,7 @@
         <v>100</v>
       </c>
       <c r="C64" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D64">
         <v>3</v>
@@ -13940,7 +13931,7 @@
         <v>7</v>
       </c>
       <c r="O64" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="P64">
         <v>1</v>
@@ -13976,7 +13967,7 @@
         <v>7</v>
       </c>
       <c r="AA64" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AB64">
         <v>4</v>
@@ -14012,7 +14003,7 @@
         <v>8</v>
       </c>
       <c r="AM64" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AN64">
         <v>5</v>
@@ -14048,7 +14039,7 @@
         <v>7</v>
       </c>
       <c r="AY64" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AZ64">
         <v>2</v>
@@ -14084,7 +14075,7 @@
         <v>5</v>
       </c>
       <c r="BK64" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="BL64">
         <v>0</v>
@@ -14128,7 +14119,7 @@
         <v>100</v>
       </c>
       <c r="C65" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D65">
         <v>5</v>
@@ -14164,7 +14155,7 @@
         <v>8</v>
       </c>
       <c r="O65" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="P65">
         <v>3</v>
@@ -14200,7 +14191,7 @@
         <v>7</v>
       </c>
       <c r="AA65" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AB65">
         <v>2</v>
@@ -14236,7 +14227,7 @@
         <v>8</v>
       </c>
       <c r="AM65" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AN65">
         <v>1</v>
@@ -14272,7 +14263,7 @@
         <v>0</v>
       </c>
       <c r="AY65" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AZ65">
         <v>4</v>
@@ -14308,7 +14299,7 @@
         <v>0</v>
       </c>
       <c r="BK65" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="BL65">
         <v>0</v>
@@ -14352,7 +14343,7 @@
         <v>100</v>
       </c>
       <c r="C66" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -14388,7 +14379,7 @@
         <v>7</v>
       </c>
       <c r="O66" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="P66">
         <v>2</v>
@@ -14424,7 +14415,7 @@
         <v>8</v>
       </c>
       <c r="AA66" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AB66">
         <v>0</v>
@@ -14460,7 +14451,7 @@
         <v>8</v>
       </c>
       <c r="AM66" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AN66">
         <v>4</v>
@@ -14496,7 +14487,7 @@
         <v>0</v>
       </c>
       <c r="AY66" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AZ66">
         <v>3</v>
@@ -14532,7 +14523,7 @@
         <v>0</v>
       </c>
       <c r="BK66" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="BL66">
         <v>5</v>
@@ -14570,22 +14561,22 @@
     </row>
     <row r="68" spans="1:74">
       <c r="B68" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F68" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G68" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="H68" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:74">
@@ -14597,8 +14588,8 @@
         <f>COUNTIF(B5:B66,"=100")</f>
         <v>58</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>10</v>
+      <c r="E69" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="F69">
         <f>COUNTIF(M47:M66,"&gt;0")</f>
@@ -14614,11 +14605,11 @@
       </c>
     </row>
     <row r="70" spans="1:74">
-      <c r="E70" s="2"/>
+      <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:74">
       <c r="E71" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F71">
         <f>AVERAGE(E47:E66)</f>
@@ -14635,7 +14626,7 @@
     </row>
     <row r="72" spans="1:74">
       <c r="E72" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F72">
         <f>MIN(E47:E66)</f>
@@ -14652,7 +14643,7 @@
     </row>
     <row r="73" spans="1:74">
       <c r="E73" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F73">
         <f>AVERAGE(N47:N66)</f>
